--- a/downloads/ROZNAMA_DATE_ORIGINAL_COPY2.xlsx
+++ b/downloads/ROZNAMA_DATE_ORIGINAL_COPY2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,17 +535,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O.A.334/2021</t>
+          <t>O.A.668/2020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">P.P.Bhopale </t>
+          <t xml:space="preserve">Dr.K.D.Ramteke </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>order_matters</t>
+          <t>hearing_party_matters</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">OA is Allowed on 22.11.2023 and the matter is challenged in Hon. Bombay High Court at Bench Nagpur WP 3009/2024 </t>
+          <t>OA is disposed off on 01.03.2024 in favour of Applicant</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O.A.38/2021</t>
+          <t>O.A.334/2021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">S.A. Gawali </t>
+          <t xml:space="preserve">O.A.334/2021 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>order_matters</t>
+          <t>hearing_party_matters</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">OA is Allowed on 14.07.2022 and the matter is challenged in Hon. Bombay High Court at Bench Nagpur WP 4701/2023 </t>
+          <t xml:space="preserve">OA is Allowed on 22.11.2023 and the matter is challenged in Hon. Bombay High Court at Bench Nagpur WP 3009/2024 </t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>O.A.668/2020</t>
+          <t>O.A.301/2018</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> O.A.668/2020</t>
+          <t xml:space="preserve">S.S. Jaiswal </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pronouncement_of_orders</t>
+          <t>order_matters</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>OA is disposed off on 01.03.2024 in favour of Applicant</t>
+          <t>OA is dismissed on 16.04.2024</t>
         </is>
       </c>
     </row>
@@ -625,27 +625,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O.A.301/2018</t>
+          <t>O.A.38/2021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">R.D.Mukkawar &amp; 3 Ors.   </t>
+          <t xml:space="preserve">R.N.Behare 
+Adv.G.N.Khanzode, 
+Mrs.P.T.Joshi &amp; 
+G.C.Khond 
+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>order_matters</t>
+          <t>hearing_party_matters</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COURT HALL A</t>
+          <t>COURT HALL B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OA is dismissed on 16.04.2024</t>
+          <t xml:space="preserve">OA is Allowed on 14.07.2022 and the matter is challenged in Hon. Bombay High Court at Bench Nagpur WP 4701/2023 </t>
         </is>
       </c>
     </row>
